--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hospital" sheetId="1" r:id="rId1"/>
+    <sheet name="doctor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -35,6 +36,75 @@
   </si>
   <si>
     <t>Shalimar Link Road</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>sadasdzxc</t>
+  </si>
+  <si>
+    <t>dfcvzx</t>
+  </si>
+  <si>
+    <t>dsfe</t>
+  </si>
+  <si>
+    <t>ererdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name </t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address </t>
+  </si>
+  <si>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>D-383</t>
+  </si>
+  <si>
+    <t>Muhammad Bilal</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Lahore</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>S125</t>
+  </si>
+  <si>
+    <t>Web App</t>
+  </si>
+  <si>
+    <t>D-351</t>
+  </si>
+  <si>
+    <t>Sarosh Javed</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>S213</t>
   </si>
 </sst>
 </file>
@@ -376,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -408,8 +478,118 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2">
+        <v>3324757022</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
         <v>90078601</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -74,7 +74,13 @@
     <t>Department</t>
   </si>
   <si>
-    <t>D-383</t>
+    <t>specialization</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>S125</t>
   </si>
   <si>
     <t>Muhammad Bilal</t>
@@ -83,34 +89,50 @@
     <t>M</t>
   </si>
   <si>
-    <t>Lahore</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t>S125</t>
+    <t>D-2010601</t>
+  </si>
+  <si>
+    <t>LHE</t>
+  </si>
+  <si>
+    <t>0332-4757022</t>
   </si>
   <si>
     <t>Web App</t>
   </si>
   <si>
-    <t>D-351</t>
-  </si>
-  <si>
     <t>Sarosh Javed</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>S213</t>
+    <t>D-2010795</t>
+  </si>
+  <si>
+    <t>090078601</t>
+  </si>
+  <si>
+    <t>Mob App</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>D-123552</t>
+  </si>
+  <si>
+    <t>94582394</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,15 +525,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -540,56 +562,82 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="D2">
-        <v>3324757022</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>90078601</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="hospital" sheetId="1" r:id="rId1"/>
     <sheet name="doctor" sheetId="2" r:id="rId2"/>
+    <sheet name="staff" sheetId="3" r:id="rId3"/>
+    <sheet name="labs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -38,18 +40,6 @@
     <t>Shalimar Link Road</t>
   </si>
   <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>sadasdzxc</t>
-  </si>
-  <si>
-    <t>dfcvzx</t>
-  </si>
-  <si>
-    <t>dsfe</t>
-  </si>
-  <si>
     <t>ererdf</t>
   </si>
   <si>
@@ -126,13 +116,75 @@
   </si>
   <si>
     <t>94582394</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>S-2139</t>
+  </si>
+  <si>
+    <t>0283192831</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>Junai</t>
+  </si>
+  <si>
+    <t>S-82374</t>
+  </si>
+  <si>
+    <t>083742349</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Aqib</t>
+  </si>
+  <si>
+    <t>S-8474</t>
+  </si>
+  <si>
+    <t>029377463</t>
+  </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>Test Cost</t>
+  </si>
+  <si>
+    <t>Covid-20</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Fahad</t>
+  </si>
+  <si>
+    <t>S-9485</t>
+  </si>
+  <si>
+    <t>090039234</t>
+  </si>
+  <si>
+    <t>Covid-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,21 +553,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -527,13 +565,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -541,103 +579,272 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>90000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="F3">
+        <v>80000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>97644</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>90000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -179,12 +179,19 @@
   </si>
   <si>
     <t>Covid-19</t>
+  </si>
+  <si>
+    <t>Covid-21</t>
+  </si>
+  <si>
+    <t>Dengue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,7 +578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -815,7 +822,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
@@ -847,6 +854,22 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="n">
+        <v>500.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="hospital" sheetId="1" r:id="rId1"/>
-    <sheet name="doctor" sheetId="2" r:id="rId2"/>
-    <sheet name="staff" sheetId="3" r:id="rId3"/>
-    <sheet name="labs" sheetId="4" r:id="rId4"/>
+    <sheet name="meds" sheetId="5" r:id="rId2"/>
+    <sheet name="patient" sheetId="6" r:id="rId3"/>
+    <sheet name="record" sheetId="7" r:id="rId4"/>
+    <sheet name="doctor" sheetId="2" r:id="rId5"/>
+    <sheet name="staff" sheetId="3" r:id="rId6"/>
+    <sheet name="nurse" sheetId="8" r:id="rId7"/>
+    <sheet name="labs" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -185,13 +189,57 @@
   </si>
   <si>
     <t>Dengue</t>
+  </si>
+  <si>
+    <t>Medicine Name</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Expire Date</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Blood Group</t>
+  </si>
+  <si>
+    <t>Reg. Date</t>
+  </si>
+  <si>
+    <t>Covid-22</t>
+  </si>
+  <si>
+    <t>Patiend ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Sickness</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Ward</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
@@ -569,6 +617,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -578,7 +731,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -690,12 +843,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -820,9 +973,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
@@ -854,20 +1045,28 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="n">
-        <v>12000.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" t="n">
-        <v>500.0</v>
+      <c r="B5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>

--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -234,12 +234,40 @@
   </si>
   <si>
     <t>Ward</t>
+  </si>
+  <si>
+    <t>Javed</t>
+  </si>
+  <si>
+    <t>N-27493</t>
+  </si>
+  <si>
+    <t>093876432</t>
+  </si>
+  <si>
+    <t>S125, S213</t>
+  </si>
+  <si>
+    <t>Waseem</t>
+  </si>
+  <si>
+    <t>N-7423</t>
+  </si>
+  <si>
+    <t>08749393</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>D-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,7 +751,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -731,7 +759,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -836,6 +864,32 @@
       </c>
       <c r="H4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -1004,6 +1058,52 @@
       </c>
       <c r="G1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="286">
   <si>
     <t>Name</t>
   </si>
@@ -261,6 +261,624 @@
   </si>
   <si>
     <t>D-</t>
+  </si>
+  <si>
+    <t>WebApp</t>
+  </si>
+  <si>
+    <t>Ashfaq</t>
+  </si>
+  <si>
+    <t>D-84656</t>
+  </si>
+  <si>
+    <t>09308854</t>
+  </si>
+  <si>
+    <t>Covid-23</t>
+  </si>
+  <si>
+    <t>Covid-24</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>Maleria</t>
+  </si>
+  <si>
+    <t>skin specialist</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>Sushant Singh</t>
+  </si>
+  <si>
+    <t>D-D-122</t>
+  </si>
+  <si>
+    <t>P and D society</t>
+  </si>
+  <si>
+    <t>03200039</t>
+  </si>
+  <si>
+    <t>Surgeon</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>John Abrahim</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>D-D-321</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>03200009</t>
+  </si>
+  <si>
+    <t>skin Spec</t>
+  </si>
+  <si>
+    <t>DFF</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>Katrina</t>
+  </si>
+  <si>
+    <t>D-D-22</t>
+  </si>
+  <si>
+    <t>Lahore</t>
+  </si>
+  <si>
+    <t>0320005</t>
+  </si>
+  <si>
+    <t>heart spec</t>
+  </si>
+  <si>
+    <t>Cardio</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>D-D-66</t>
+  </si>
+  <si>
+    <t>bahria town</t>
+  </si>
+  <si>
+    <t>0320007</t>
+  </si>
+  <si>
+    <t>cardio</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>Madhubala</t>
+  </si>
+  <si>
+    <t>D-D-444</t>
+  </si>
+  <si>
+    <t>egypt</t>
+  </si>
+  <si>
+    <t>0320004</t>
+  </si>
+  <si>
+    <t>NN2</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>N-N-11</t>
+  </si>
+  <si>
+    <t>Los Ang 21</t>
+  </si>
+  <si>
+    <t>0320030</t>
+  </si>
+  <si>
+    <t>NN31</t>
+  </si>
+  <si>
+    <t>Cardi-B</t>
+  </si>
+  <si>
+    <t>N-NN3</t>
+  </si>
+  <si>
+    <t>Angelo park 2</t>
+  </si>
+  <si>
+    <t>03200043</t>
+  </si>
+  <si>
+    <t>NNN3</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>Angil street2</t>
+  </si>
+  <si>
+    <t>N-Beyonce</t>
+  </si>
+  <si>
+    <t>angelo park 22</t>
+  </si>
+  <si>
+    <t>032000399</t>
+  </si>
+  <si>
+    <t>NN3</t>
+  </si>
+  <si>
+    <t>2221</t>
+  </si>
+  <si>
+    <t>N-Jennifer Annisten</t>
+  </si>
+  <si>
+    <t>AmericPark2</t>
+  </si>
+  <si>
+    <t>03200094</t>
+  </si>
+  <si>
+    <t>NN321</t>
+  </si>
+  <si>
+    <t>666</t>
+  </si>
+  <si>
+    <t>Nicki Minaj</t>
+  </si>
+  <si>
+    <t>N-Nicki Minaj</t>
+  </si>
+  <si>
+    <t>endfor 33</t>
+  </si>
+  <si>
+    <t>0320049</t>
+  </si>
+  <si>
+    <t>NNN4</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>N-NN44</t>
+  </si>
+  <si>
+    <t>kkkD3</t>
+  </si>
+  <si>
+    <t>03200056</t>
+  </si>
+  <si>
+    <t>NN4</t>
+  </si>
+  <si>
+    <t>7686</t>
+  </si>
+  <si>
+    <t>Katty Perry</t>
+  </si>
+  <si>
+    <t>N-Katty Perry</t>
+  </si>
+  <si>
+    <t>regto 22</t>
+  </si>
+  <si>
+    <t>03200067</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>30-2-20</t>
+  </si>
+  <si>
+    <t>Soniya</t>
+  </si>
+  <si>
+    <t>P-P4</t>
+  </si>
+  <si>
+    <t>Wonto6</t>
+  </si>
+  <si>
+    <t>04300590</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>3-2-20</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>P-P44</t>
+  </si>
+  <si>
+    <t>Eroso 3</t>
+  </si>
+  <si>
+    <t>03928200</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>4-3-20</t>
+  </si>
+  <si>
+    <t>Hamid</t>
+  </si>
+  <si>
+    <t>P-P41</t>
+  </si>
+  <si>
+    <t>donton 4</t>
+  </si>
+  <si>
+    <t>93929948</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>4-2-20</t>
+  </si>
+  <si>
+    <t>Vin Diesel</t>
+  </si>
+  <si>
+    <t>P-P6</t>
+  </si>
+  <si>
+    <t>London street2</t>
+  </si>
+  <si>
+    <t>328938298</t>
+  </si>
+  <si>
+    <t>3-4-20</t>
+  </si>
+  <si>
+    <t>Maniyat Dutt</t>
+  </si>
+  <si>
+    <t>P-P76</t>
+  </si>
+  <si>
+    <t>durto 56</t>
+  </si>
+  <si>
+    <t>93492394</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>22-4-20</t>
+  </si>
+  <si>
+    <t>Mehreen Syed</t>
+  </si>
+  <si>
+    <t>Karachi 3 talwar</t>
+  </si>
+  <si>
+    <t>39948794</t>
+  </si>
+  <si>
+    <t>Sana Safinaz</t>
+  </si>
+  <si>
+    <t>P-P8</t>
+  </si>
+  <si>
+    <t>domino233</t>
+  </si>
+  <si>
+    <t>3389202</t>
+  </si>
+  <si>
+    <t>7-2-20</t>
+  </si>
+  <si>
+    <t>Hurrem Sultan</t>
+  </si>
+  <si>
+    <t>Iqbal PArk4</t>
+  </si>
+  <si>
+    <t>843940394</t>
+  </si>
+  <si>
+    <t>5-3-20</t>
+  </si>
+  <si>
+    <t>Sarosh</t>
+  </si>
+  <si>
+    <t>P-P5</t>
+  </si>
+  <si>
+    <t>Samanabad</t>
+  </si>
+  <si>
+    <t>039238293</t>
+  </si>
+  <si>
+    <t>8-3-20</t>
+  </si>
+  <si>
+    <t>Farzand Masih</t>
+  </si>
+  <si>
+    <t>P-P78</t>
+  </si>
+  <si>
+    <t>toorto7</t>
+  </si>
+  <si>
+    <t>4987982</t>
+  </si>
+  <si>
+    <t>O-</t>
+  </si>
+  <si>
+    <t>12-4-20</t>
+  </si>
+  <si>
+    <t>Saira Younas</t>
+  </si>
+  <si>
+    <t>P-P9</t>
+  </si>
+  <si>
+    <t>harmonoto 4</t>
+  </si>
+  <si>
+    <t>843894359</t>
+  </si>
+  <si>
+    <t>25-3-20</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>P-P71</t>
+  </si>
+  <si>
+    <t>entamon 4</t>
+  </si>
+  <si>
+    <t>3589949</t>
+  </si>
+  <si>
+    <t>Panadol</t>
+  </si>
+  <si>
+    <t>Unilever</t>
+  </si>
+  <si>
+    <t>12-12-20</t>
+  </si>
+  <si>
+    <t>Ponston</t>
+  </si>
+  <si>
+    <t>15-12-20</t>
+  </si>
+  <si>
+    <t>Arinac</t>
+  </si>
+  <si>
+    <t>tomo</t>
+  </si>
+  <si>
+    <t>15-11-20</t>
+  </si>
+  <si>
+    <t>Paracetamol</t>
+  </si>
+  <si>
+    <t>timno</t>
+  </si>
+  <si>
+    <t>11-12-20</t>
+  </si>
+  <si>
+    <t>SomoGel</t>
+  </si>
+  <si>
+    <t>rino</t>
+  </si>
+  <si>
+    <t>5-12-20</t>
+  </si>
+  <si>
+    <t>Brufin</t>
+  </si>
+  <si>
+    <t>remno</t>
+  </si>
+  <si>
+    <t>6-12-20</t>
+  </si>
+  <si>
+    <t>Amoxil</t>
+  </si>
+  <si>
+    <t>renzo</t>
+  </si>
+  <si>
+    <t>22-12-20</t>
+  </si>
+  <si>
+    <t>Gripewater</t>
+  </si>
+  <si>
+    <t>woodworth</t>
+  </si>
+  <si>
+    <t>23-12-20</t>
+  </si>
+  <si>
+    <t>R-P6</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>surgery</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>brufin</t>
+  </si>
+  <si>
+    <t>R-P0</t>
+  </si>
+  <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>blood pressure check</t>
+  </si>
+  <si>
+    <t>high blood pressure</t>
+  </si>
+  <si>
+    <t>paracetamol</t>
+  </si>
+  <si>
+    <t>R-P11</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>5-2-20</t>
+  </si>
+  <si>
+    <t>fever check</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>R-P00</t>
+  </si>
+  <si>
+    <t>P66</t>
+  </si>
+  <si>
+    <t>8-2-20</t>
+  </si>
+  <si>
+    <t>nose surgeory</t>
+  </si>
+  <si>
+    <t>asthematic</t>
+  </si>
+  <si>
+    <t>ventoline</t>
+  </si>
+  <si>
+    <t>R-P01</t>
+  </si>
+  <si>
+    <t>P555</t>
+  </si>
+  <si>
+    <t>eye laser</t>
+  </si>
+  <si>
+    <t>weak eyesight</t>
+  </si>
+  <si>
+    <t>drops</t>
+  </si>
+  <si>
+    <t>R-P010</t>
+  </si>
+  <si>
+    <t>P77</t>
+  </si>
+  <si>
+    <t>9-2-20</t>
+  </si>
+  <si>
+    <t>hair transplant</t>
+  </si>
+  <si>
+    <t>bald</t>
+  </si>
+  <si>
+    <t>somogel</t>
+  </si>
+  <si>
+    <t>R-P101</t>
+  </si>
+  <si>
+    <t>P221</t>
+  </si>
+  <si>
+    <t>21-2-20</t>
+  </si>
+  <si>
+    <t>stiches</t>
+  </si>
+  <si>
+    <t>wound</t>
   </si>
 </sst>
 </file>
@@ -646,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -671,6 +1289,142 @@
         <v>60</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -678,7 +1432,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -709,6 +1463,282 @@
         <v>63</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -716,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -744,6 +1774,146 @@
         <v>69</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -751,7 +1921,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -890,6 +2060,162 @@
       </c>
       <c r="H5" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +2355,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -1106,6 +2432,167 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1113,7 +2600,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
@@ -1169,6 +2656,38 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="296">
   <si>
     <t>Name</t>
   </si>
@@ -879,6 +879,36 @@
   </si>
   <si>
     <t>wound</t>
+  </si>
+  <si>
+    <t>receptionist</t>
+  </si>
+  <si>
+    <t>Somo</t>
+  </si>
+  <si>
+    <t>S-S323</t>
+  </si>
+  <si>
+    <t>redopedo</t>
+  </si>
+  <si>
+    <t>78675675</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>S-S454</t>
+  </si>
+  <si>
+    <t>remodemo</t>
+  </si>
+  <si>
+    <t>55565657</t>
   </si>
 </sst>
 </file>
@@ -2225,7 +2255,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -2346,6 +2376,52 @@
       </c>
       <c r="G5" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -2692,14 +2692,6 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2">
-        <v>9000</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>

--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="hospital" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="nurse" sheetId="8" r:id="rId7"/>
     <sheet name="labs" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="294">
   <si>
     <t>Name</t>
   </si>
@@ -161,12 +161,6 @@
     <t>029377463</t>
   </si>
   <si>
-    <t>Test Name</t>
-  </si>
-  <si>
-    <t>Test Cost</t>
-  </si>
-  <si>
     <t>Covid-20</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>090039234</t>
   </si>
   <si>
-    <t>Covid-19</t>
-  </si>
-  <si>
     <t>Covid-21</t>
   </si>
   <si>
@@ -909,14 +900,17 @@
   </si>
   <si>
     <t>55565657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Name </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,7 +1001,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1039,10 +1033,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1074,7 +1067,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1250,16 +1242,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1293,166 +1285,166 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>226</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
         <v>227</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>228</v>
       </c>
-      <c r="D2" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>229</v>
       </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>230</v>
       </c>
-      <c r="D3" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>231</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>232</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>233</v>
       </c>
-      <c r="D4" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>234</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>235</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>236</v>
       </c>
-      <c r="D5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>237</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>238</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>239</v>
       </c>
-      <c r="D6" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>240</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>241</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>242</v>
       </c>
-      <c r="D7" t="n">
-        <v>300.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="D8">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>243</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>244</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>245</v>
       </c>
-      <c r="D8" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>40.0</v>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1461,21 +1453,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -1487,286 +1479,286 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
         <v>168</v>
-      </c>
-      <c r="E2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
         <v>174</v>
-      </c>
-      <c r="E3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" t="s">
-        <v>177</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
         <v>180</v>
-      </c>
-      <c r="E4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" t="s">
-        <v>183</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>186</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
         <v>185</v>
-      </c>
-      <c r="F5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" t="s">
-        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
         <v>191</v>
-      </c>
-      <c r="E6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" t="s">
-        <v>194</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>195</v>
       </c>
-      <c r="F7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>198</v>
-      </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
         <v>199</v>
-      </c>
-      <c r="F8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" t="s">
-        <v>202</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>204</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B10" t="s">
         <v>203</v>
-      </c>
-      <c r="F9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" t="s">
-        <v>206</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>209</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B11" t="s">
         <v>208</v>
-      </c>
-      <c r="F10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" t="s">
-        <v>211</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s">
         <v>214</v>
-      </c>
-      <c r="E11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" t="s">
-        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>220</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B13" t="s">
         <v>219</v>
-      </c>
-      <c r="F12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" t="s">
-        <v>222</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1775,173 +1767,173 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
         <v>249</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>250</v>
       </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>251</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>252</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
         <v>254</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>255</v>
       </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>256</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>257</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>259</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>260</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>261</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>262</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" t="s">
         <v>263</v>
       </c>
-      <c r="F4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
         <v>264</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>265</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>266</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>267</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
         <v>268</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
         <v>270</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>271</v>
       </c>
-      <c r="C6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>272</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B7" t="s">
         <v>273</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C7" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
         <v>275</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>276</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>277</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>278</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B8" t="s">
         <v>279</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C8" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
         <v>281</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>282</v>
       </c>
-      <c r="C8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E8" t="s">
-        <v>285</v>
-      </c>
       <c r="F8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1950,19 +1942,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +1980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2014,7 +2006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2040,7 +2032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2066,50 +2058,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2118,134 +2110,134 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
         <v>92</v>
       </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G8" t="s">
         <v>94</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H8" t="s">
         <v>93</v>
       </c>
-      <c r="F7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
         <v>116</v>
-      </c>
-      <c r="E10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2254,16 +2246,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2286,7 +2278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2309,7 +2301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2332,7 +2324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2355,18 +2347,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -2375,53 +2367,53 @@
         <v>90000</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6">
+        <v>6000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>290</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B7" t="s">
         <v>289</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6000.0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" t="s">
-        <v>292</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6000.0</v>
+        <v>291</v>
+      </c>
+      <c r="F7">
+        <v>6000</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2430,16 +2422,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2459,21 +2451,21 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -2485,188 +2477,188 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>128</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" t="s">
-        <v>130</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
         <v>133</v>
-      </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" t="s">
-        <v>136</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>139</v>
       </c>
-      <c r="E6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>142</v>
-      </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
         <v>144</v>
-      </c>
-      <c r="E7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
         <v>150</v>
-      </c>
-      <c r="E8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" t="s">
-        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
         <v>156</v>
-      </c>
-      <c r="E9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>159</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2675,85 +2667,77 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>48</v>
       </c>
       <c r="B3">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>12000</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>84</v>
       </c>
-      <c r="B7" t="n">
-        <v>15000.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" t="n">
-        <v>30000.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10000.0</v>
+      <c r="B10">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="304">
   <si>
     <t>Name</t>
   </si>
@@ -903,6 +903,36 @@
   </si>
   <si>
     <t xml:space="preserve">Test Name </t>
+  </si>
+  <si>
+    <t>Skin specialist</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>Shahida</t>
+  </si>
+  <si>
+    <t>D-D33</t>
+  </si>
+  <si>
+    <t>samanabad</t>
+  </si>
+  <si>
+    <t>48975929</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>549493</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +1973,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -2238,6 +2268,58 @@
       </c>
       <c r="H11" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" t="s">
+        <v>302</v>
+      </c>
+      <c r="H13" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/hospital1.xlsx
+++ b/hospital1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="313">
   <si>
     <t>Name</t>
   </si>
@@ -933,6 +933,33 @@
   </si>
   <si>
     <t>549493</t>
+  </si>
+  <si>
+    <t>S234</t>
+  </si>
+  <si>
+    <t>Hussain</t>
+  </si>
+  <si>
+    <t>D-39482</t>
+  </si>
+  <si>
+    <t>039478293</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>S934</t>
+  </si>
+  <si>
+    <t>D-3i483</t>
+  </si>
+  <si>
+    <t>09384932</t>
+  </si>
+  <si>
+    <t>Covid</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -2320,6 +2347,58 @@
       </c>
       <c r="H13" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" t="s">
+        <v>309</v>
+      </c>
+      <c r="H15" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2750,7 +2829,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -2822,6 +2901,14 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
